--- a/결과집계표.xlsx
+++ b/결과집계표.xlsx
@@ -277,12 +277,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'학교통계'!$A$91:$A$103</f>
+              <f>'학교통계'!$A$77:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'학교통계'!$B$91:$B$103</f>
+              <f>'학교통계'!$B$77:$B$87</f>
             </numRef>
           </val>
         </ser>
@@ -354,12 +354,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'학교통계'!$A$105:$A$109</f>
+              <f>'학교통계'!$A$89:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'학교통계'!$B$105:$B$109</f>
+              <f>'학교통계'!$B$89:$B$92</f>
             </numRef>
           </val>
         </ser>
@@ -717,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
   </cols>
@@ -792,20 +792,20 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>강연우</t>
+          <t>강진주</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>통합사회1</t>
+          <t>영어 회화</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -817,20 +817,20 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>강진주</t>
+          <t>김다은</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>영어 회화</t>
+          <t>통합과학1</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -842,20 +842,20 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>강진주</t>
+          <t>김다은</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>실용 영어</t>
+          <t>화학Ⅰ</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -872,11 +872,11 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>통합과학1</t>
+          <t>화학Ⅱ</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -892,20 +892,20 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>김다은</t>
+          <t>김미연</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>화학Ⅰ</t>
+          <t>한국사1</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -917,20 +917,20 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>김다은</t>
+          <t>김수옥</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>화학Ⅱ</t>
+          <t>공통수학1</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -942,16 +942,16 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>김미연</t>
+          <t>김준수</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>한국사1</t>
+          <t>세계사</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -967,20 +967,20 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>김소형</t>
+          <t>김진영</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>* 원천징수</t>
+          <t>언어와 매체</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>국어</t>
         </is>
       </c>
     </row>
@@ -992,20 +992,20 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>김소형</t>
+          <t>김현아</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>기업 자원 통합 관리</t>
+          <t>사회·문화</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1017,20 +1017,20 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>김소형</t>
+          <t>김현아</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>세무 일반</t>
+          <t>정치와 법</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>김수옥</t>
+          <t>김희진</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>공통수학1</t>
+          <t>공통영어1</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1067,20 +1067,20 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>김수옥</t>
+          <t>남궁연</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>기본수학1</t>
+          <t>기하</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>김원홍</t>
+          <t>남궁연</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>기업과 경영</t>
+          <t>미적분</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -1117,20 +1117,20 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>김원홍</t>
+          <t>남궁연</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>유통 일반</t>
+          <t>수학과제 탐구</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -1142,12 +1142,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>김준수</t>
+          <t>남궁연</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>세계사</t>
+          <t>확률과 통계</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -1167,20 +1167,20 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>김준수</t>
+          <t>박선아</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>한국사1</t>
+          <t>마케팅과 광고</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>전문 교과</t>
         </is>
       </c>
     </row>
@@ -1192,16 +1192,16 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>김진영</t>
+          <t>박찬들</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>언어와 매체</t>
+          <t>문학</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>김진영</t>
+          <t>박현주</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>공통국어1</t>
+          <t>공통수학1</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -1242,20 +1242,20 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>김현아</t>
+          <t>박형빈</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>사회·문화</t>
+          <t>공통국어1</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어</t>
         </is>
       </c>
     </row>
@@ -1267,20 +1267,20 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>김현아</t>
+          <t>박형빈</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>정치와 법</t>
+          <t>현대문학 감상</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어</t>
         </is>
       </c>
     </row>
@@ -1292,20 +1292,20 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>김혜주</t>
+          <t>반철진</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>* 보고업무</t>
+          <t>생활과 윤리</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1317,20 +1317,20 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>김혜주</t>
+          <t>성다나</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>* 비품관리</t>
+          <t>미술 감상과 비평</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>예술</t>
         </is>
       </c>
     </row>
@@ -1342,20 +1342,20 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>김혜주</t>
+          <t>성다나</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>* 용역관리</t>
+          <t>미술 창작</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>예술</t>
         </is>
       </c>
     </row>
@@ -1367,12 +1367,12 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>김혜주</t>
+          <t>신민경</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>* 응대업무</t>
+          <t>여행지리</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1392,20 +1392,20 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>김혜주</t>
+          <t>신민경</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>회계 정보 처리 시스템</t>
+          <t>한국지리</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1417,16 +1417,16 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>김희진</t>
+          <t>신현선</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>공통영어1</t>
+          <t>영어 독해와 작문</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -1442,20 +1442,20 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>김희진</t>
+          <t>안경일</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>기본영어1</t>
+          <t>스포츠 생활</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>남궁연</t>
+          <t>안경일</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>기하</t>
+          <t>체육 전공 실기 기초</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1492,20 +1492,20 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>남궁연</t>
+          <t>안경일</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>미적분</t>
+          <t>체육1</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1517,20 +1517,20 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>남궁연</t>
+          <t>오영서</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>수학과제 탐구</t>
+          <t>지구과학Ⅰ</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1542,20 +1542,20 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>남궁연</t>
+          <t>오영서</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>확률과 통계</t>
+          <t>지구과학Ⅱ</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>문기현</t>
+          <t>윤아름</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>* 자금관리</t>
+          <t>한문Ⅰ</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>한문</t>
         </is>
       </c>
     </row>
@@ -1592,20 +1592,20 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>문기현</t>
+          <t>윤인수</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>* 전표관리</t>
+          <t>과학탐구실험1</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1617,20 +1617,20 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>문기현</t>
+          <t>윤인수</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>상업 경제</t>
+          <t>물리학Ⅰ</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1642,20 +1642,20 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>박선아</t>
+          <t>윤인수</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>마케팅과 광고</t>
+          <t>물리학Ⅱ</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1667,20 +1667,20 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>박선아</t>
+          <t>윤인수</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>마케팅과 광고</t>
+          <t>통합과학1</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1692,20 +1692,20 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>박선아</t>
+          <t>이기홍</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>사무 관리</t>
+          <t>사회·문화</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>박찬들</t>
+          <t>이기홍</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>문학</t>
+          <t>통합사회1</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1742,20 +1742,20 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>박찬들</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>공통국어1</t>
+          <t>공통영어1</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1767,20 +1767,20 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>박찬들</t>
+          <t>이선주</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>실용 국어</t>
+          <t>영어Ⅰ</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1792,12 +1792,12 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>박현주</t>
+          <t>이수종</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>공통수학1</t>
+          <t>화법과 작문</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>국어</t>
         </is>
       </c>
     </row>
@@ -1817,20 +1817,20 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>박현주</t>
+          <t>이애림</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>기본수학1</t>
+          <t>심리학</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>교양</t>
         </is>
       </c>
     </row>
@@ -1842,20 +1842,20 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>박형빈</t>
+          <t>이애림</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>공통국어1</t>
+          <t>확률과 통계</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -1867,16 +1867,16 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>박형빈</t>
+          <t>이은영</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>현대문학 감상</t>
+          <t>문학</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
@@ -1892,16 +1892,16 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>반철진</t>
+          <t>이현솔</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>생활과 윤리</t>
+          <t>세계지리</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>반철진</t>
+          <t>이현솔</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -1942,20 +1942,20 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>배서연</t>
+          <t>이현정</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>* 문서관리</t>
+          <t>수학Ⅰ</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -1967,20 +1967,20 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>배서연</t>
+          <t>임건</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>* 문서작성</t>
+          <t>미디어 콘텐츠 일반</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>전문 교과</t>
         </is>
       </c>
     </row>
@@ -1992,20 +1992,20 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>배서연</t>
+          <t>임영수</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>기업과 경영</t>
+          <t>교육학</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>교양</t>
         </is>
       </c>
     </row>
@@ -2017,20 +2017,20 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>성다나</t>
+          <t>임영수</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>미술 감상과 비평</t>
+          <t>스포츠 생활</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>예술</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -2042,20 +2042,20 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>성다나</t>
+          <t>임영수</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>미술 창작</t>
+          <t>운동과 건강</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>예술</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -2067,20 +2067,20 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>성다나</t>
+          <t>임영수</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>미술 창작</t>
+          <t>체육1</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>예술</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -2092,20 +2092,20 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>신민경</t>
+          <t>장유진</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>여행지리</t>
+          <t>공통국어1</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어</t>
         </is>
       </c>
     </row>
@@ -2117,20 +2117,20 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>신민경</t>
+          <t>전형구</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>한국지리</t>
+          <t>생명과학Ⅱ</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -2142,20 +2142,20 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>신민경</t>
+          <t>전형구</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>통합사회1</t>
+          <t>생활과 과학</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -2167,20 +2167,20 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>신현선</t>
+          <t>전형구</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>영어 독해와 작문</t>
+          <t>환경</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>교양</t>
         </is>
       </c>
     </row>
@@ -2192,20 +2192,20 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>신현선</t>
+          <t>정다혜</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>실용 영어</t>
+          <t>수학Ⅰ</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학</t>
         </is>
       </c>
     </row>
@@ -2217,20 +2217,20 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>안경일</t>
+          <t>정다혜</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>스포츠 생활</t>
+          <t>실용 경제</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>교양</t>
         </is>
       </c>
     </row>
@@ -2242,16 +2242,16 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>안경일</t>
+          <t>정대교</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>체육 전공 실기 기초</t>
+          <t>스포츠 생활</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>안경일</t>
+          <t>정대교</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>체육1</t>
+          <t>운동과 건강</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>안경일</t>
+          <t>정대교</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>운동과 건강</t>
+          <t>체육1</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
@@ -2317,20 +2317,20 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>안경일</t>
+          <t>정래호</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>체육1</t>
+          <t>영어Ⅰ</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -2342,20 +2342,20 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>엄미희</t>
+          <t>정래호</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>* 캐릭터 그래픽 요소 제작</t>
+          <t>영어권 문화</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -2367,12 +2367,12 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>엄미희</t>
+          <t>정빛나</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>* 캐릭터 콘셉트 설정</t>
+          <t>과학탐구실험1</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -2392,20 +2392,20 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>엄미희</t>
+          <t>정빛나</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>미디어 콘텐츠 일반</t>
+          <t>생명과학Ⅰ</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -2417,16 +2417,16 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>오영서</t>
+          <t>정빛나</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>지구과학Ⅰ</t>
+          <t>통합과학1</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
@@ -2442,20 +2442,20 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>오영서</t>
+          <t>천원영</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>지구과학Ⅱ</t>
+          <t>동아시아사</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -2467,20 +2467,20 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>윤아름</t>
+          <t>최효진</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>한문Ⅰ</t>
+          <t>일본어Ⅰ</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>한문</t>
+          <t>제2외국어</t>
         </is>
       </c>
     </row>
@@ -2492,20 +2492,20 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>윤인수</t>
+          <t>허원아</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>과학탐구실험1</t>
+          <t>음악</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>예술</t>
         </is>
       </c>
     </row>
@@ -2517,20 +2517,20 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>윤인수</t>
+          <t>허원아</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>물리학Ⅰ</t>
+          <t>음악 감상과 비평</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>예술</t>
         </is>
       </c>
     </row>
@@ -2542,1568 +2542,18 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>윤인수</t>
+          <t>황주현</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>물리학Ⅱ</t>
+          <t>보건</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>윤인수</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>통합과학1</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>이기홍</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>사회·문화</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>이기홍</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>통합사회1</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>이미경</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>공통영어1</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>이미경</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>기본영어1</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>이선주</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>영어Ⅰ</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>이선주</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>실용 영어</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>이수종</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>화법과 작문</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>국어</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>이수종</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>실용 국어</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>국어</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>이애림</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>심리학</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>교양</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>이애림</t>
-        </is>
-      </c>
-      <c r="C84" s="2" t="inlineStr">
-        <is>
-          <t>확률과 통계</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>이애림</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>실용 수학</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>이은영</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>문학</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>국어</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>이은영</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>실용 국어</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>국어</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>이현솔</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>세계지리</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>이현솔</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>통합사회1</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>이현정</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>수학Ⅰ</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>이현정</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>실용 수학</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>인창열</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>* 게임 웹 프로그래밍</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>인창열</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>* 게임 플랫폼 응용 프로그래밍</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>인창열</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>정보 처리와 관리</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>인창열</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>컴퓨터 시스템 일반</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
-        <is>
-          <t>정보</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>임건</t>
-        </is>
-      </c>
-      <c r="C96" s="2" t="inlineStr">
-        <is>
-          <t>미디어 콘텐츠 일반</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>임건</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>* 게임엔진 응용 프로그래밍</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>임건</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>디자인 일반</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>임건</t>
-        </is>
-      </c>
-      <c r="C99" s="2" t="inlineStr">
-        <is>
-          <t>정보 처리와 관리</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>임영수</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>교육학</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>교양</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>임영수</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>스포츠 생활</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>임영수</t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>운동과 건강</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>임영수</t>
-        </is>
-      </c>
-      <c r="C103" s="2" t="inlineStr">
-        <is>
-          <t>체육1</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>임영수</t>
-        </is>
-      </c>
-      <c r="C104" s="2" t="inlineStr">
-        <is>
-          <t>운동과 건강</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>장유진</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>공통국어1</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>국어</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>장유진</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>공통국어1</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>국어</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>전정화</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>* 사업기획</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>전정화</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>* 사이트 기획</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>전정화</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>정보 처리와 관리</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>전정화</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>컴퓨터 그래픽</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>전형구</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>생명과학Ⅱ</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>전형구</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>생활과 과학</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>전형구</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>환경</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>교양</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>정다혜</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="inlineStr">
-        <is>
-          <t>수학Ⅰ</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>정다혜</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr">
-        <is>
-          <t>실용 경제</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>교양</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>정대교</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>스포츠 생활</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>정대교</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="inlineStr">
-        <is>
-          <t>운동과 건강</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>정대교</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>체육1</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>정대교</t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>운동과 건강</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>정대교</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>체육1</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>정래호</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>영어Ⅰ</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>정래호</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>영어권 문화</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>정빛나</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>과학탐구실험1</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>정빛나</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>생명과학Ⅰ</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>정빛나</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>통합과학1</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>정영신</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>* 고객 필요정보 제공</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>정영신</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>* 고객관리 계획수립</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>정영신</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>* 사무자동화 프로그램 활용</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>정영신</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>상업 경제</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>천원영</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>동아시아사</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>최효진</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>일본어Ⅰ</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>제2외국어</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>최효진</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>일본어Ⅰ</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>제2외국어</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>허원아</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>음악</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>예술</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>허원아</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>음악 감상과 비평</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>예술</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>황주현</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>보건</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
         <is>
           <t>교양</t>
         </is>
@@ -4120,7 +2570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4133,8 +2583,8 @@
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="56" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4191,14 +2641,14 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>윤리와 사상, 통합사회1</t>
+          <t>윤리와 사상</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
@@ -4220,14 +2670,14 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>실용 영어, 영어 회화</t>
+          <t>영어 회화</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
@@ -4298,30 +2748,26 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>김소형</t>
+          <t>김수옥</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>수학</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>* 원천징수, 기업 자원 통합 관리, 세무 일반</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
+          <t>공통수학1</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -4331,30 +2777,26 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>김수옥</t>
+          <t>김준수</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>공통수학1, 기본수학1</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 수학</t>
-        </is>
-      </c>
+          <t>세계사</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -4364,23 +2806,23 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>김원홍</t>
+          <t>김진영</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>국어</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>기업과 경영, 유통 일반</t>
+          <t>언어와 매체</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
@@ -4393,7 +2835,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>김준수</t>
+          <t>김현아</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -4402,14 +2844,14 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>세계사, 한국사1</t>
+          <t>사회·문화, 정치와 법</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
@@ -4422,23 +2864,23 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>김진영</t>
+          <t>김희진</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>공통국어1, 언어와 매체</t>
+          <t>공통영어1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
@@ -4451,23 +2893,23 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>김현아</t>
+          <t>남궁연</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>사회·문화, 정치와 법</t>
+          <t>기하, 미적분, 수학과제 탐구, 확률과 통계</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
@@ -4480,7 +2922,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>김혜주</t>
+          <t>박선아</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -4489,21 +2931,17 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>* 보고업무, * 비품관리, * 용역관리, * 응대업무, 회계 정보 처리 시스템</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
+          <t>마케팅과 광고</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -4513,30 +2951,26 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>김희진</t>
+          <t>박찬들</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>공통영어1, 기본영어1</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 영어</t>
-        </is>
-      </c>
+          <t>문학</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -4546,7 +2980,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>남궁연</t>
+          <t>박현주</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -4555,14 +2989,14 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>기하, 미적분, 수학과제 탐구, 확률과 통계</t>
+          <t>공통수학1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
@@ -4575,30 +3009,26 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>문기현</t>
+          <t>박형빈</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>국어</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>* 자금관리, * 전표관리, 상업 경제</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
+          <t>공통국어1, 현대문학 감상</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -4608,23 +3038,23 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>박선아</t>
+          <t>반철진</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>마케팅과 광고, 사무 관리</t>
+          <t>생활과 윤리</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
@@ -4637,23 +3067,23 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>박찬들</t>
+          <t>성다나</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>예술</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>공통국어1, 문학, 실용 국어</t>
+          <t>미술 감상과 비평, 미술 창작</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
@@ -4666,30 +3096,26 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>박현주</t>
+          <t>신민경</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>공통수학1, 기본수학1</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 수학</t>
-        </is>
-      </c>
+          <t>여행지리, 한국지리</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -4699,23 +3125,23 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>박형빈</t>
+          <t>신현선</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>공통국어1, 현대문학 감상</t>
+          <t>영어 독해와 작문</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
@@ -4728,23 +3154,23 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>반철진</t>
+          <t>안경일</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>생활과 윤리, 통합사회1</t>
+          <t>스포츠 생활, 체육 전공 실기 기초, 체육1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
@@ -4757,30 +3183,26 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>배서연</t>
+          <t>오영서</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>* 문서관리, * 문서작성, 기업과 경영</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
+          <t>지구과학Ⅰ, 지구과학Ⅱ</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -4790,23 +3212,23 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>성다나</t>
+          <t>윤아름</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>예술</t>
+          <t>한문</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>미술 감상과 비평, 미술 창작</t>
+          <t>한문Ⅰ</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
@@ -4819,23 +3241,23 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>신민경</t>
+          <t>윤인수</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>여행지리, 통합사회1, 한국지리</t>
+          <t>과학탐구실험1, 물리학Ⅰ, 물리학Ⅱ, 통합과학1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
@@ -4848,23 +3270,23 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>신현선</t>
+          <t>이기홍</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>실용 영어, 영어 독해와 작문</t>
+          <t>사회·문화, 통합사회1</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
@@ -4877,23 +3299,23 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>안경일</t>
+          <t>이미경</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
         <v>12</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>스포츠 생활, 운동과 건강, 체육 전공 실기 기초, 체육1</t>
+          <t>공통영어1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
@@ -4906,30 +3328,26 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>엄미희</t>
+          <t>이선주</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>* 캐릭터 그래픽 요소 제작, * 캐릭터 콘셉트 설정, 미디어 콘텐츠 일반</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
+          <t>영어Ⅰ</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -4939,23 +3357,23 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>오영서</t>
+          <t>이수종</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>지구과학Ⅰ, 지구과학Ⅱ</t>
+          <t>화법과 작문</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
@@ -4968,26 +3386,30 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>윤아름</t>
+          <t>이애림</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>한문</t>
+          <t>수학</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>한문Ⅰ</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr"/>
+          <t>심리학, 확률과 통계</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>교양 + 수학</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -4997,23 +3419,23 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>윤인수</t>
+          <t>이은영</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>과학탐구실험1, 물리학Ⅰ, 물리학Ⅱ, 통합과학1</t>
+          <t>문학</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
@@ -5026,7 +3448,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>이기홍</t>
+          <t>이현솔</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -5035,14 +3457,14 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>사회·문화, 통합사회1</t>
+          <t>세계지리, 통합사회1</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
@@ -5055,30 +3477,26 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>이미경</t>
+          <t>이현정</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>공통영어1, 기본영어1</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 영어</t>
-        </is>
-      </c>
+          <t>수학Ⅰ</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -5088,23 +3506,23 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>이선주</t>
+          <t>임건</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>전문 교과</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>실용 영어, 영어Ⅰ</t>
+          <t>미디어 콘텐츠 일반</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
@@ -5117,26 +3535,30 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>이수종</t>
+          <t>임영수</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>실용 국어, 화법과 작문</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>교육학, 스포츠 생활, 운동과 건강, 체육1</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>교양 + 체육</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -5146,30 +3568,26 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>이애림</t>
+          <t>장유진</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>국어</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>실용 수학, 심리학, 확률과 통계</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>교양 + 수학</t>
-        </is>
-      </c>
+          <t>공통국어1</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -5179,26 +3597,30 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>이은영</t>
+          <t>전형구</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>문학, 실용 국어</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr"/>
+          <t>생명과학Ⅱ, 생활과 과학, 환경</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>과학 + 교양</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -5208,26 +3630,30 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>이현솔</t>
+          <t>정다혜</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>세계지리, 통합사회1</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr"/>
+          <t>수학Ⅰ, 실용 경제</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>교양 + 수학</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -5237,23 +3663,23 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>이현정</t>
+          <t>정대교</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>수학Ⅰ, 실용 수학</t>
+          <t>스포츠 생활, 운동과 건강, 체육1</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
@@ -5266,30 +3692,26 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>인창열</t>
+          <t>정래호</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>정보</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>* 게임 웹 프로그래밍, * 게임 플랫폼 응용 프로그래밍, 정보 처리와 관리, 컴퓨터 시스템 일반</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과 + 정보</t>
-        </is>
-      </c>
+          <t>영어Ⅰ, 영어권 문화</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -5299,30 +3721,26 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>임건</t>
+          <t>정빛나</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>* 게임엔진 응용 프로그래밍, 디자인 일반, 미디어 콘텐츠 일반, 정보 처리와 관리</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
+          <t>과학탐구실험1, 생명과학Ⅰ, 통합과학1</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -5332,30 +3750,26 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>임영수</t>
+          <t>천원영</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>교육학, 스포츠 생활, 운동과 건강, 체육1</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>교양 + 체육</t>
-        </is>
-      </c>
+          <t>동아시아사</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -5365,23 +3779,23 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>장유진</t>
+          <t>최효진</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>제2외국어</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>공통국어1</t>
+          <t>일본어Ⅰ</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
@@ -5394,30 +3808,26 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>전정화</t>
+          <t>허원아</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>전문 교과</t>
+          <t>예술</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>* 사업기획, * 사이트 기획, 정보 처리와 관리, 컴퓨터 그래픽</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
+          <t>음악, 음악 감상과 비평</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -5427,329 +3837,56 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>전형구</t>
+          <t>황주현</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>교양</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>생명과학Ⅱ, 생활과 과학, 환경</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>과학 + 교양</t>
-        </is>
-      </c>
+          <t>보건</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>정다혜</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
+          <t>전체 교사수</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n"/>
       <c r="D44" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>수학Ⅰ, 실용 경제</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>교양 + 수학</t>
-        </is>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>정대교</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
+          <t>전체 시수</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n"/>
       <c r="D45" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>스포츠 생활, 운동과 건강, 체육1</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>정래호</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>영어Ⅰ, 영어권 문화</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>정빛나</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>과학탐구실험1, 생명과학Ⅰ, 통합과학1</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>정영신</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>* 고객 필요정보 제공, * 고객관리 계획수립, * 사무자동화 프로그램 활용, 상업 경제</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>천원영</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>동아시아사</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>최효진</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>제2외국어</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>일본어Ⅰ</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>허원아</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>예술</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>음악, 음악 감상과 비평</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>황주현</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>교양</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>보건</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>전체 교사수</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="n"/>
-      <c r="D53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>전체 시수</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="n"/>
-      <c r="D54" s="2" t="n">
-        <v>722</v>
-      </c>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
+        <v>461</v>
+      </c>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5762,7 +3899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5805,7 +3942,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -5815,7 +3952,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>7.8</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="5">
@@ -5825,7 +3962,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -5835,7 +3972,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>49</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="7">
@@ -5845,7 +3982,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -5855,7 +3992,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>23.5</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="9">
@@ -5865,7 +4002,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -5875,1050 +4012,870 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>11.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>5과목_교사수</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>4</v>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>과학_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B11" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*과학*")</f>
+        <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>5과목_비율</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>7.8</v>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>과학_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B12" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*과학*")</f>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>과학_교과(군)_교사수</t>
+          <t>과학_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B13" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*과학*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"과학")</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>과학_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B14" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*과학*")</f>
+          <t>과학_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B14" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*과학*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>과학_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B15" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"과학")</f>
-        <v/>
+          <t>과학_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>과학_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B16" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*과학*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>교양_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B16" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*교양*")</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>과학_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>2.8</v>
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>교양_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B17" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*교양*")</f>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>교양_교과(군)_교사수</t>
+          <t>교양_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B18" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*교양*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"교양")</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>교양_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B19" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*교양*")</f>
+          <t>교양_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B19" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*교양*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>교양_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B20" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"교양")</f>
-        <v/>
+          <t>교양_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>교양_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B21" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*교양*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>국어_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B21" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*국어*")</f>
         <v/>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>교양_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>1</v>
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>국어_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B22" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*국어*")</f>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>국어_교과(군)_교사수</t>
+          <t>국어_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B23" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*국어*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"국어")</f>
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>국어_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B24" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*국어*")</f>
+          <t>국어_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B24" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*국어*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>국어_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B25" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"국어")</f>
-        <v/>
+          <t>국어_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>국어_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B26" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*국어*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>사회_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B26" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*사회*")</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>국어_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n">
-        <v>2</v>
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>사회_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B27" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*사회*")</f>
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>기타_교과(군)_교사수</t>
+          <t>사회_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B28" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*기타*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"사회")</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>기타_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B29" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*기타*")</f>
+          <t>사회_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B29" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*사회*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>기타_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B30" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"기타")</f>
-        <v/>
+          <t>사회_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>기타_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B31" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*기타*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>수학_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B31" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*수학*")</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>기타_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="n">
-        <v>1.77</v>
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>수학_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B32" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*수학*")</f>
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="inlineStr">
         <is>
-          <t>사회_교과(군)_교사수</t>
+          <t>수학_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B33" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*사회*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"수학")</f>
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>사회_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B34" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*사회*")</f>
+          <t>수학_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B34" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*수학*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="inlineStr">
         <is>
-          <t>사회_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B35" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"사회")</f>
-        <v/>
+          <t>수학_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>사회_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B36" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*사회*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A36" s="10" t="inlineStr">
+        <is>
+          <t>영어_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B36" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*영어*")</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="inlineStr">
-        <is>
-          <t>사회_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n">
-        <v>1.89</v>
+      <c r="A37" s="10" t="inlineStr">
+        <is>
+          <t>영어_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B37" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*영어*")</f>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="10" t="inlineStr">
         <is>
-          <t>수학_교과(군)_교사수</t>
+          <t>영어_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B38" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*수학*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"영어")</f>
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="10" t="inlineStr">
         <is>
-          <t>수학_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B39" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*수학*")</f>
+          <t>영어_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B39" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*영어*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="10" t="inlineStr">
         <is>
-          <t>수학_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B40" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"수학")</f>
-        <v/>
+          <t>영어_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="inlineStr">
-        <is>
-          <t>수학_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B41" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*수학*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>예술_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B41" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*예술*")</f>
         <v/>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="inlineStr">
-        <is>
-          <t>수학_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B42" s="10" t="n">
-        <v>1.83</v>
+      <c r="A42" s="11" t="inlineStr">
+        <is>
+          <t>예술_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B42" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*예술*")</f>
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>영어_교과(군)_교사수</t>
+          <t>예술_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B43" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*영어*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"예술")</f>
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>영어_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B44" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*영어*")</f>
+          <t>예술_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B44" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*예술*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>영어_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B45" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"영어")</f>
-        <v/>
+          <t>예술_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>영어_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B46" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*영어*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>전문 교과_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B46" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*전문 교과*")</f>
         <v/>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>영어_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B47" s="11" t="n">
-        <v>1.67</v>
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>전문 교과_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B47" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*전문 교과*")</f>
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="12" t="inlineStr">
         <is>
-          <t>예술_교과(군)_교사수</t>
+          <t>전문 교과_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B48" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*예술*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"전문 교과")</f>
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>예술_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B49" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*예술*")</f>
+          <t>전문 교과_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B49" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*전문 교과*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="12" t="inlineStr">
         <is>
-          <t>예술_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B50" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"예술")</f>
-        <v/>
+          <t>전문 교과_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B50" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="inlineStr">
-        <is>
-          <t>예술_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B51" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*예술*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>제2외국어_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B51" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*제2외국어*")</f>
         <v/>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="12" t="inlineStr">
-        <is>
-          <t>예술_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B52" s="12" t="n">
-        <v>2</v>
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>제2외국어_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B52" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*제2외국어*")</f>
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>전문 교과_교과(군)_교사수</t>
+          <t>제2외국어_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B53" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*전문 교과*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"제2외국어")</f>
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>전문 교과_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B54" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*전문 교과*")</f>
+          <t>제2외국어_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B54" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*제2외국어*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>전문 교과_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B55" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"전문 교과")</f>
-        <v/>
+          <t>제2외국어_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>전문 교과_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B56" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*전문 교과*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>체육_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B56" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*체육*")</f>
         <v/>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>전문 교과_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>1.55</v>
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>체육_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B57" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*체육*")</f>
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>정보_교과(군)_교사수</t>
+          <t>체육_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B58" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*정보*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"체육")</f>
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="inlineStr">
         <is>
-          <t>정보_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B59" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*정보*")</f>
+          <t>체육_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B59" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*체육*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6" t="inlineStr">
         <is>
-          <t>정보_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B60" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"정보")</f>
-        <v/>
+          <t>체육_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>정보_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B61" s="5">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*정보*",'교사별총시수'!$D:$D),0)</f>
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>한문_교과(군)_교사수</t>
+        </is>
+      </c>
+      <c r="B61" s="4">
+        <f>COUNTIF('교사별총시수'!$C:$C,"*한문*")</f>
         <v/>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
-        <is>
-          <t>정보_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B62" s="6" t="n">
-        <v>1</v>
+      <c r="A62" s="7" t="inlineStr">
+        <is>
+          <t>한문_교과(군)_교사의_총시수</t>
+        </is>
+      </c>
+      <c r="B62" s="4">
+        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*한문*")</f>
+        <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="inlineStr">
         <is>
-          <t>제2외국어_교과(군)_교사수</t>
+          <t>한문_교과(군)_과목의_총시수</t>
         </is>
       </c>
       <c r="B63" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*제2외국어*")</f>
+        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"한문")</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="inlineStr">
         <is>
-          <t>제2외국어_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B64" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*제2외국어*")</f>
+          <t>한문_교과(군)_교사의_평균시수</t>
+        </is>
+      </c>
+      <c r="B64" s="5">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*한문*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="inlineStr">
         <is>
-          <t>제2외국어_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B65" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"제2외국어")</f>
-        <v/>
+          <t>한문_교과(군)_교사의_평균과목수</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="inlineStr">
-        <is>
-          <t>제2외국어_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B66" s="5">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>1개교과군_교사수</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>1개교과군_비율</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>2개교과군_교사수</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>2개교과군_비율</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>전체_교사수 👩‍🏫</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>전체_시수 ⏱️</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>평균시수 📊</t>
+        </is>
+      </c>
+      <c r="B72" s="13" t="n">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>전체_과목수 📚</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>개설_과목수 🆕</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>평균_과목수 💡</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n"/>
+      <c r="B76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="B77" s="4">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*과학*",'교사별총시수'!$D:$D),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>교양</t>
+        </is>
+      </c>
+      <c r="B78" s="4">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*교양*",'교사별총시수'!$D:$D),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="inlineStr">
+        <is>
+          <t>국어</t>
+        </is>
+      </c>
+      <c r="B79" s="4">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*국어*",'교사별총시수'!$D:$D),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="B80" s="4">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*사회*",'교사별총시수'!$D:$D),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>수학</t>
+        </is>
+      </c>
+      <c r="B81" s="4">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*수학*",'교사별총시수'!$D:$D),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="B82" s="4">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*영어*",'교사별총시수'!$D:$D),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="11" t="inlineStr">
+        <is>
+          <t>예술</t>
+        </is>
+      </c>
+      <c r="B83" s="4">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*예술*",'교사별총시수'!$D:$D),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>전문 교과</t>
+        </is>
+      </c>
+      <c r="B84" s="4">
+        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*전문 교과*",'교사별총시수'!$D:$D),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>제2외국어</t>
+        </is>
+      </c>
+      <c r="B85" s="4">
         <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*제2외국어*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="7" t="inlineStr">
-        <is>
-          <t>제2외국어_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B67" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>체육_교과(군)_교사수</t>
-        </is>
-      </c>
-      <c r="B68" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*체육*")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="8" t="inlineStr">
-        <is>
-          <t>체육_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B69" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*체육*")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="inlineStr">
-        <is>
-          <t>체육_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B70" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"체육")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="inlineStr">
-        <is>
-          <t>체육_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B71" s="5">
+    <row r="86">
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="B86" s="4">
         <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*체육*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t>체육_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B72" s="8" t="n">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>한문_교과(군)_교사수</t>
-        </is>
-      </c>
-      <c r="B73" s="4">
-        <f>COUNTIF('교사별총시수'!$C:$C,"*한문*")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>한문_교과(군)_교사의_총시수</t>
-        </is>
-      </c>
-      <c r="B74" s="4">
-        <f>SUMIFS('교사별총시수'!$D:$D,'교사별총시수'!$C:$C,"*한문*")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>한문_교과(군)_과목의_총시수</t>
-        </is>
-      </c>
-      <c r="B75" s="4">
-        <f>SUMIFS('교사별시수현황'!$D:$D,'교사별시수현황'!$E:$E,"한문")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="9" t="inlineStr">
-        <is>
-          <t>한문_교과(군)_교사의_평균시수</t>
-        </is>
-      </c>
-      <c r="B76" s="5">
+    <row r="87">
+      <c r="A87" s="7" t="inlineStr">
+        <is>
+          <t>한문</t>
+        </is>
+      </c>
+      <c r="B87" s="4">
         <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*한문*",'교사별총시수'!$D:$D),0)</f>
         <v/>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>한문_교과(군)_교사의_평균과목수</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>1개교과군_교사수</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>1개교과군_비율</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>66.7</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>2개교과군_교사수</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>2개교과군_비율</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>3개교과군_교사수</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>3개교과군_비율</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>전체_교사수 👩‍🏫</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>전체_시수 ⏱️</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>평균시수 📊</t>
-        </is>
-      </c>
-      <c r="B86" s="13" t="n">
-        <v>14.16</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>전체_과목수 📚</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>134</v>
-      </c>
-    </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>개설_과목수 🆕</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>90</v>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>평균_과목수 💡</t>
+          <t>1과목</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>2.63</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2과목</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="B91" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*과학*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>3과목</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>11.9</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="inlineStr">
-        <is>
-          <t>교양</t>
-        </is>
-      </c>
-      <c r="B92" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*교양*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="7" t="inlineStr">
-        <is>
-          <t>국어</t>
-        </is>
-      </c>
-      <c r="B93" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*국어*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="8" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-      <c r="B94" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*기타*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="B95" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*사회*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="10" t="inlineStr">
-        <is>
-          <t>수학</t>
-        </is>
-      </c>
-      <c r="B96" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*수학*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="B97" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*영어*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="12" t="inlineStr">
-        <is>
-          <t>예술</t>
-        </is>
-      </c>
-      <c r="B98" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*예술*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>전문 교과</t>
-        </is>
-      </c>
-      <c r="B99" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*전문 교과*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="6" t="inlineStr">
-        <is>
-          <t>정보</t>
-        </is>
-      </c>
-      <c r="B100" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*정보*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="7" t="inlineStr">
-        <is>
-          <t>제2외국어</t>
-        </is>
-      </c>
-      <c r="B101" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*제2외국어*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-      <c r="B102" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*체육*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="9" t="inlineStr">
-        <is>
-          <t>한문</t>
-        </is>
-      </c>
-      <c r="B103" s="4">
-        <f>IFERROR(AVERAGEIF('교사별총시수'!$C:$C,"*한문*",'교사별총시수'!$D:$D),0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>1과목</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>2과목</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>3과목</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="inlineStr">
+      <c r="A92" s="2" t="inlineStr">
         <is>
           <t>4과목</t>
         </is>
       </c>
-      <c r="B108" s="2" t="n">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>5과목</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>7.8</v>
+      <c r="B92" s="2" t="n">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -6933,7 +4890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6942,9 +4899,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="39" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6977,7 +4934,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>기타 + 전문 교과 + 정보</t>
+          <t>과학 + 교양</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -6985,7 +4942,7 @@
       </c>
       <c r="D2" s="15" t="inlineStr">
         <is>
-          <t>인창열</t>
+          <t>전형구</t>
         </is>
       </c>
     </row>
@@ -6997,15 +4954,15 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>과학 + 교양</t>
+          <t>교양 + 수학</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="15" t="inlineStr">
         <is>
-          <t>전형구</t>
+          <t>이애림, 정다혜</t>
         </is>
       </c>
     </row>
@@ -7017,95 +4974,15 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>교양 + 수학</t>
+          <t>교양 + 체육</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="15" t="inlineStr">
         <is>
-          <t>이애림, 정다혜</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>교양 + 체육</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
           <t>임영수</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 수학</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15" t="inlineStr">
-        <is>
-          <t>김수옥, 박현주</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 영어</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="inlineStr">
-        <is>
-          <t>김희진, 이미경</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>단일학교</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>기타 + 전문 교과</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="inlineStr">
-        <is>
-          <t>김소형, 김혜주, 문기현, 배서연, 엄미희, 임건, 전정화, 정영신</t>
         </is>
       </c>
     </row>
